--- a/www/IndicatorsPerCountry/Indonesia_HistoricalGenderEqualityIndex_TerritorialRef_2002_2012_CCode_360.xlsx
+++ b/www/IndicatorsPerCountry/Indonesia_HistoricalGenderEqualityIndex_TerritorialRef_2002_2012_CCode_360.xlsx
@@ -81,13 +81,13 @@
     <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Indonesia_HistoricalGenderEqualityIndex_TerritorialRef_2002_2012_CCode_360.xlsx
+++ b/www/IndicatorsPerCountry/Indonesia_HistoricalGenderEqualityIndex_TerritorialRef_2002_2012_CCode_360.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,22 +36,166 @@
     <t>Historical Gender Equality Index</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>66</t>
+    <t>55.8509071403649</t>
+  </si>
+  <si>
+    <t>57.7886058827951</t>
+  </si>
+  <si>
+    <t>59.4089382599226</t>
+  </si>
+  <si>
+    <t>57.8626059938716</t>
+  </si>
+  <si>
+    <t>58.807256707857</t>
+  </si>
+  <si>
+    <t>57.5128376519035</t>
+  </si>
+  <si>
+    <t>61.2594570762897</t>
+  </si>
+  <si>
+    <t>61.6104710925976</t>
+  </si>
+  <si>
+    <t>59.9629869877234</t>
+  </si>
+  <si>
+    <t>58.8202546596286</t>
+  </si>
+  <si>
+    <t>61.4088592537089</t>
+  </si>
+  <si>
+    <t>57.9946316107679</t>
+  </si>
+  <si>
+    <t>61.3842583594647</t>
+  </si>
+  <si>
+    <t>62.505022150868</t>
+  </si>
+  <si>
+    <t>62.7188916143857</t>
+  </si>
+  <si>
+    <t>59.3613714205746</t>
+  </si>
+  <si>
+    <t>59.5061775357359</t>
+  </si>
+  <si>
+    <t>61.5107420776668</t>
+  </si>
+  <si>
+    <t>59.8521868500092</t>
+  </si>
+  <si>
+    <t>58.7119177076275</t>
+  </si>
+  <si>
+    <t>59.7124543610405</t>
+  </si>
+  <si>
+    <t>59.2325629044928</t>
+  </si>
+  <si>
+    <t>62.8882526850317</t>
+  </si>
+  <si>
+    <t>61.4402542811114</t>
+  </si>
+  <si>
+    <t>63.2197682053978</t>
+  </si>
+  <si>
+    <t>63.5744366639304</t>
+  </si>
+  <si>
+    <t>63.1481902381056</t>
+  </si>
+  <si>
+    <t>59.587131938727</t>
+  </si>
+  <si>
+    <t>62.3852659112315</t>
+  </si>
+  <si>
+    <t>59.1434761832696</t>
+  </si>
+  <si>
+    <t>60.8035533654633</t>
+  </si>
+  <si>
+    <t>61.2720393403351</t>
+  </si>
+  <si>
+    <t>62.3130731538101</t>
+  </si>
+  <si>
+    <t>63.8339578452287</t>
+  </si>
+  <si>
+    <t>63.0816904791049</t>
+  </si>
+  <si>
+    <t>63.0689338635537</t>
+  </si>
+  <si>
+    <t>65.9531335565144</t>
+  </si>
+  <si>
+    <t>65.682529565637</t>
+  </si>
+  <si>
+    <t>67.8936766161412</t>
+  </si>
+  <si>
+    <t>65.2403548001457</t>
+  </si>
+  <si>
+    <t>65.3226413327423</t>
+  </si>
+  <si>
+    <t>65.3424195574117</t>
+  </si>
+  <si>
+    <t>66.0266795838196</t>
+  </si>
+  <si>
+    <t>67.1042460773196</t>
+  </si>
+  <si>
+    <t>65.2523328680847</t>
+  </si>
+  <si>
+    <t>66.9962105857951</t>
+  </si>
+  <si>
+    <t>65.0819073168832</t>
+  </si>
+  <si>
+    <t>64.1670901415301</t>
+  </si>
+  <si>
+    <t>67.4031264298614</t>
+  </si>
+  <si>
+    <t>64.5994369674195</t>
+  </si>
+  <si>
+    <t>67.0622583303942</t>
+  </si>
+  <si>
+    <t>65.9596454701009</t>
+  </si>
+  <si>
+    <t>65.7927077183322</t>
+  </si>
+  <si>
+    <t>65.2775410498851</t>
   </si>
   <si>
     <t>Description</t>
@@ -78,7 +222,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Indonesia_HistoricalGenderEqualityIndex_TerritorialRef_2002_2012_CCode_360.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
@@ -203,7 +347,7 @@
         <v>1952.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -220,7 +364,7 @@
         <v>1953.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -237,7 +381,7 @@
         <v>1954.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -254,7 +398,7 @@
         <v>1955.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -271,7 +415,7 @@
         <v>1956.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -288,7 +432,7 @@
         <v>1957.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -305,7 +449,7 @@
         <v>1958.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -322,7 +466,7 @@
         <v>1959.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -339,7 +483,7 @@
         <v>1960.0</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -356,7 +500,7 @@
         <v>1961.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -373,7 +517,7 @@
         <v>1962.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -390,7 +534,7 @@
         <v>1963.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -407,7 +551,7 @@
         <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -424,7 +568,7 @@
         <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -441,7 +585,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -458,7 +602,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -475,7 +619,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -492,7 +636,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +653,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -526,7 +670,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -543,7 +687,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +704,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -577,7 +721,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -594,7 +738,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -611,7 +755,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -628,7 +772,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -645,7 +789,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -662,7 +806,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -679,7 +823,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +840,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -713,7 +857,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -730,7 +874,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +891,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -764,7 +908,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -781,7 +925,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +942,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -815,7 +959,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -832,7 +976,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -849,7 +993,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -866,7 +1010,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -883,7 +1027,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -900,7 +1044,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -917,7 +1061,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -934,7 +1078,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -951,7 +1095,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -968,7 +1112,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -985,7 +1129,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1002,7 +1146,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1019,7 +1163,58 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1037,50 +1232,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
